--- a/kursayin/revenue_table.xlsx
+++ b/kursayin/revenue_table.xlsx
@@ -590,31 +590,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>4.75106465816068</v>
+        <v>0.2489353418393198</v>
       </c>
       <c r="C3">
-        <v>3.926737444445063</v>
+        <v>0.07326255555493688</v>
       </c>
       <c r="D3">
-        <v>9.959132285615359</v>
+        <v>0.04086771438464032</v>
       </c>
       <c r="E3">
-        <v>7.601703453057088</v>
+        <v>0.3982965469429116</v>
       </c>
       <c r="F3">
-        <v>2.966673010385273</v>
+        <v>0.0333269896147268</v>
       </c>
       <c r="G3">
-        <v>6.425405009632708</v>
+        <v>0.5745949903672919</v>
       </c>
       <c r="H3">
-        <v>1.963368722222532</v>
+        <v>0.03663127777746844</v>
       </c>
       <c r="I3">
-        <v>7.946096424007316</v>
+        <v>0.05390357599268381</v>
       </c>
       <c r="J3">
-        <v>2.966673010385273</v>
+        <v>0.0333269896147268</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -622,31 +622,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4.975243199295103</v>
+        <v>1.982366259644978</v>
       </c>
       <c r="C4">
-        <v>3.997316749117479</v>
+        <v>1.009419710337965</v>
       </c>
       <c r="D4">
-        <v>9.999665968773662</v>
+        <v>1.237689509749511</v>
       </c>
       <c r="E4">
-        <v>7.960389118872165</v>
+        <v>3.171786015431965</v>
       </c>
       <c r="F4">
-        <v>2.999259586865419</v>
+        <v>0.5990683577564593</v>
       </c>
       <c r="G4">
-        <v>6.905986541521141</v>
+        <v>3.43647216567537</v>
       </c>
       <c r="H4">
-        <v>1.998658374558739</v>
+        <v>0.5047098551689824</v>
       </c>
       <c r="I4">
-        <v>7.999273617613029</v>
+        <v>1.259456401989698</v>
       </c>
       <c r="J4">
-        <v>2.999259586865419</v>
+        <v>0.5990683577564593</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -654,31 +654,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4.998149081378998</v>
+        <v>3.737097710861764</v>
       </c>
       <c r="C5">
-        <v>3.999926269904775</v>
+        <v>2.402626798270039</v>
       </c>
       <c r="D5">
-        <v>9.999997952319129</v>
+        <v>4.070414100580236</v>
       </c>
       <c r="E5">
-        <v>7.997038530206398</v>
+        <v>5.979356337378823</v>
       </c>
       <c r="F5">
-        <v>2.999987661385139</v>
+        <v>1.59341481563982</v>
       </c>
       <c r="G5">
-        <v>6.988391650991299</v>
+        <v>5.734769709427136</v>
       </c>
       <c r="H5">
-        <v>1.999963134952388</v>
+        <v>1.20131339913502</v>
       </c>
       <c r="I5">
-        <v>7.999992658346555</v>
+        <v>3.730742203760109</v>
       </c>
       <c r="J5">
-        <v>2.999987661385139</v>
+        <v>1.59341481563982</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -686,31 +686,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>4.999877116885469</v>
+        <v>4.612475399765366</v>
       </c>
       <c r="C6">
-        <v>3.999998199437508</v>
+        <v>3.361354799395259</v>
       </c>
       <c r="D6">
-        <v>9.999999988842131</v>
+        <v>6.883584228929398</v>
       </c>
       <c r="E6">
-        <v>7.99980338701675</v>
+        <v>7.379960639624586</v>
       </c>
       <c r="F6">
-        <v>2.999999817240248</v>
+        <v>2.375933996311904</v>
       </c>
       <c r="G6">
-        <v>6.998728888532482</v>
+        <v>6.673462611694449</v>
       </c>
       <c r="H6">
-        <v>1.999999099718754</v>
+        <v>1.680677399697629</v>
       </c>
       <c r="I6">
-        <v>7.999999934043085</v>
+        <v>5.92673785697855</v>
       </c>
       <c r="J6">
-        <v>2.999999817240248</v>
+        <v>2.375933996311904</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -718,31 +718,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>4.999992352446667</v>
+        <v>4.90651122742389</v>
       </c>
       <c r="C7">
-        <v>3.999999958776928</v>
+        <v>3.797455170122328</v>
       </c>
       <c r="D7">
-        <v>9.999999999943</v>
+        <v>8.678555808025807</v>
       </c>
       <c r="E7">
-        <v>7.999987763914667</v>
+        <v>7.850417963878225</v>
       </c>
       <c r="F7">
-        <v>2.999999997462154</v>
+        <v>2.779214784559222</v>
       </c>
       <c r="G7">
-        <v>6.99986956811113</v>
+        <v>6.933983495417143</v>
       </c>
       <c r="H7">
-        <v>1.999999979388464</v>
+        <v>1.898727585061164</v>
       </c>
       <c r="I7">
-        <v>7.999999999444484</v>
+        <v>7.192598477801109</v>
       </c>
       <c r="J7">
-        <v>2.999999997462154</v>
+        <v>2.779214784559222</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -750,31 +750,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4.999999543100626</v>
+        <v>4.981446092495504</v>
       </c>
       <c r="C8">
-        <v>3.999999999093967</v>
+        <v>3.946911440178646</v>
       </c>
       <c r="D8">
-        <v>9.999999999999719</v>
+        <v>9.532738107746297</v>
       </c>
       <c r="E8">
-        <v>7.999999268961001</v>
+        <v>7.970313747992806</v>
       </c>
       <c r="F8">
-        <v>2.999999999966169</v>
+        <v>2.935268575610342</v>
       </c>
       <c r="G8">
-        <v>6.999987152112365</v>
+        <v>6.989040647943918</v>
       </c>
       <c r="H8">
-        <v>1.999999999546984</v>
+        <v>1.973455720089323</v>
       </c>
       <c r="I8">
-        <v>7.999999999995508</v>
+        <v>7.738643642745617</v>
       </c>
       <c r="J8">
-        <v>2.999999999966169</v>
+        <v>2.935268575610342</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -782,31 +782,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>4.99999997346104</v>
+        <v>4.996874488848067</v>
       </c>
       <c r="C9">
-        <v>3.999999999980639</v>
+        <v>3.98815720810584</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>9.858634583423848</v>
       </c>
       <c r="E9">
-        <v>7.999999957537663</v>
+        <v>7.994999182156907</v>
       </c>
       <c r="F9">
-        <v>2.999999999999562</v>
+        <v>2.983821849329582</v>
       </c>
       <c r="G9">
-        <v>6.999998769610507</v>
+        <v>6.998457364333555</v>
       </c>
       <c r="H9">
-        <v>1.99999999999032</v>
+        <v>1.99407860405292</v>
       </c>
       <c r="I9">
-        <v>7.999999999999963</v>
+        <v>7.927754281197564</v>
       </c>
       <c r="J9">
-        <v>2.999999999999562</v>
+        <v>2.983821849329582</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -814,31 +814,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>4.999999998489946</v>
+        <v>4.999542793734014</v>
       </c>
       <c r="C10">
-        <v>3.999999999999595</v>
+        <v>3.997702015111281</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>9.962672552713775</v>
       </c>
       <c r="E10">
-        <v>7.999999997583913</v>
+        <v>7.999268469974424</v>
       </c>
       <c r="F10">
-        <v>2.999999999999995</v>
+        <v>2.996479347099797</v>
       </c>
       <c r="G10">
-        <v>6.9999998845754</v>
+        <v>6.999811567498234</v>
       </c>
       <c r="H10">
-        <v>1.999999999999797</v>
+        <v>1.998851007555641</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>7.982591564740994</v>
       </c>
       <c r="J10">
-        <v>2.999999999999995</v>
+        <v>2.996479347099797</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -846,31 +846,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>4.999999999915422</v>
+        <v>4.999940909744652</v>
       </c>
       <c r="C11">
-        <v>3.999999999999992</v>
+        <v>3.99960559216211</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>9.991262142481807</v>
       </c>
       <c r="E11">
-        <v>7.999999999864676</v>
+        <v>7.999905455591442</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2.999321860051384</v>
       </c>
       <c r="G11">
-        <v>6.999999989341045</v>
+        <v>6.999979673352695</v>
       </c>
       <c r="H11">
-        <v>1.999999999999996</v>
+        <v>1.999802796081055</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>7.996284321348583</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>2.999321860051384</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -878,31 +878,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>4.99999999999532</v>
+        <v>4.999993160652433</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3.99993932840671</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>9.998163804408101</v>
       </c>
       <c r="E12">
-        <v>7.999999999992513</v>
+        <v>7.999989057043892</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2.999882870640876</v>
       </c>
       <c r="G12">
-        <v>6.999999999027848</v>
+        <v>6.999998036938562</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1.999969664203355</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>7.999288460591455</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>2.999882870640876</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -910,31 +910,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4.999999999999743</v>
+        <v>4.999999283297575</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3.999991545200168</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>9.999650038822914</v>
       </c>
       <c r="E13">
-        <v>7.99999999999959</v>
+        <v>7.999998853276119</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2.999981666608582</v>
       </c>
       <c r="G13">
-        <v>6.999999999912221</v>
+        <v>6.999999828395898</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1.999995772600084</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>7.999876473514293</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>2.999981666608582</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -942,31 +942,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>4.999999999999987</v>
+        <v>4.999999931392274</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3.999998923234477</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>9.999938989595101</v>
       </c>
       <c r="E14">
-        <v>7.999999999999979</v>
+        <v>7.999999890227638</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>2.999997376781244</v>
       </c>
       <c r="G14">
-        <v>6.999999999992138</v>
+        <v>6.999999986298867</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1.999999461617239</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>7.999980390628981</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>2.999997376781244</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -974,31 +974,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4.999999993955461</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3.999999873747118</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>9.999990200904154</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>7.999999990328738</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2.999999654365521</v>
       </c>
       <c r="G15">
-        <v>6.999999999999303</v>
+        <v>6.999999998993338</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1.999999936873559</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>7.999997132808517</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>2.999999654365521</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1006,31 +1006,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>4.999999999506756</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3.99999998628534</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>9.99999854110313</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>7.99999999921081</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>2.999999957801903</v>
       </c>
       <c r="G16">
-        <v>6.999999999999934</v>
+        <v>6.999999999931503</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1.99999999314267</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>7.999999611473502</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>2.999999957801903</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1038,31 +1038,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>4.999999999962517</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3.99999999861231</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>9.999999797598543</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>7.999999999940028</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2.999999995200585</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>6.999999999995659</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1.999999999306155</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>7.999999950946904</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>2.999999995200585</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1070,31 +1070,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4.999999999997335</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3.999999999868599</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>9.999999973712345</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>7.999999999995736</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2.999999999489111</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>6.999999999999742</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1.9999999999343</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>7.99999999420297</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>2.999999999489111</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1102,31 +1102,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4.999999999999821</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3.999999999988308</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>9.999999996790809</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>7.999999999999715</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2.999999999948893</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>6.999999999999986</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1.999999999994154</v>
       </c>
       <c r="I19">
-        <v>8</v>
+        <v>7.999999999356121</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>2.999999999948893</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1134,31 +1134,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4.999999999999989</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3.999999999999019</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>9.999999999630427</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>7.999999999999982</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>2.999999999995178</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>6.999999999999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1.99999999999951</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>7.999999999932543</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>2.999999999995178</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1166,31 +1166,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3.999999999999922</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>9.999999999959723</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>2.99999999999957</v>
       </c>
       <c r="G21">
         <v>7</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1.999999999999961</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>7.999999999993313</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2.99999999999957</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1201,28 +1201,28 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3.999999999999994</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>9.999999999995834</v>
       </c>
       <c r="E22">
         <v>8</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>2.999999999999964</v>
       </c>
       <c r="G22">
         <v>7</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1.999999999999997</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>7.999999999999371</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2.999999999999964</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1236,13 +1236,13 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>9.99999999999959</v>
       </c>
       <c r="E23">
         <v>8</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2.999999999999997</v>
       </c>
       <c r="G23">
         <v>7</v>
@@ -1251,10 +1251,10 @@
         <v>2</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>7.999999999999944</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2.999999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1268,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>9.999999999999961</v>
       </c>
       <c r="E24">
         <v>8</v>
@@ -1283,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>7.999999999999996</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -1300,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>9.999999999999996</v>
       </c>
       <c r="E25">
         <v>8</v>
